--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H2">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I2">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J2">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.196272</v>
+        <v>0.104012</v>
       </c>
       <c r="N2">
-        <v>0.588816</v>
+        <v>0.312036</v>
       </c>
       <c r="O2">
-        <v>0.02813229386822481</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P2">
-        <v>0.03089009369338271</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q2">
-        <v>1.54338748896</v>
+        <v>0.562152512268</v>
       </c>
       <c r="R2">
-        <v>13.89048740064</v>
+        <v>5.059372610412</v>
       </c>
       <c r="S2">
-        <v>0.003704217029388386</v>
+        <v>0.001275428447248136</v>
       </c>
       <c r="T2">
-        <v>0.004252513294640732</v>
+        <v>0.001463973615799144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H3">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I3">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J3">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6892151609068061</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P3">
-        <v>0.7567787040415452</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q3">
-        <v>37.81156494126444</v>
+        <v>25.988351573661</v>
       </c>
       <c r="R3">
-        <v>340.30408447138</v>
+        <v>233.895164162949</v>
       </c>
       <c r="S3">
-        <v>0.0907498886476244</v>
+        <v>0.05896314998291953</v>
       </c>
       <c r="T3">
-        <v>0.1041826396508167</v>
+        <v>0.06767960685340448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H4">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I4">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J4">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03080033333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N4">
-        <v>0.092401</v>
+        <v>4.347989</v>
       </c>
       <c r="O4">
-        <v>0.004414710343669059</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P4">
-        <v>0.004847482995302872</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q4">
-        <v>0.2421988318377777</v>
+        <v>11.7497641602105</v>
       </c>
       <c r="R4">
-        <v>2.17978948654</v>
+        <v>70.49858496126301</v>
       </c>
       <c r="S4">
-        <v>0.0005812908578104472</v>
+        <v>0.02665821664289686</v>
       </c>
       <c r="T4">
-        <v>0.0006673332262338291</v>
+        <v>0.02039938076947822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H5">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I5">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J5">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.868607</v>
+        <v>0.047446</v>
       </c>
       <c r="N5">
-        <v>3.737214</v>
+        <v>0.142338</v>
       </c>
       <c r="O5">
-        <v>0.267833421212511</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P5">
-        <v>0.1960593642364025</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q5">
-        <v>14.69381605926</v>
+        <v>0.256430874294</v>
       </c>
       <c r="R5">
-        <v>88.16289635555998</v>
+        <v>2.307877868646</v>
       </c>
       <c r="S5">
-        <v>0.03526598735751581</v>
+        <v>0.000581798043573194</v>
       </c>
       <c r="T5">
-        <v>0.0269906935611761</v>
+        <v>0.0006678046011537726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.863513333333333</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H6">
-        <v>23.59054</v>
+        <v>45.389333</v>
       </c>
       <c r="I6">
-        <v>0.1316713470554304</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J6">
-        <v>0.1376659241260802</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.072589</v>
+        <v>0.104012</v>
       </c>
       <c r="N6">
-        <v>0.217767</v>
+        <v>0.312036</v>
       </c>
       <c r="O6">
-        <v>0.01040441366878908</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P6">
-        <v>0.01142435503336674</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q6">
-        <v>0.5708045693533333</v>
+        <v>1.573678434665333</v>
       </c>
       <c r="R6">
-        <v>5.13724112418</v>
+        <v>14.163105911988</v>
       </c>
       <c r="S6">
-        <v>0.001369963163091392</v>
+        <v>0.003570408738894354</v>
       </c>
       <c r="T6">
-        <v>0.001572744393212869</v>
+        <v>0.004098218290989017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J7">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.196272</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N7">
-        <v>0.588816</v>
+        <v>14.425447</v>
       </c>
       <c r="O7">
-        <v>0.02813229386822481</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P7">
-        <v>0.03089009369338271</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q7">
-        <v>2.969551722192</v>
+        <v>72.75126861742788</v>
       </c>
       <c r="R7">
-        <v>26.725965499728</v>
+        <v>654.761417556851</v>
       </c>
       <c r="S7">
-        <v>0.007127091632967294</v>
+        <v>0.1650602559680849</v>
       </c>
       <c r="T7">
-        <v>0.008182040004907703</v>
+        <v>0.1894609299923491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J8">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.808482333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N8">
-        <v>14.425447</v>
+        <v>4.347989</v>
       </c>
       <c r="O8">
-        <v>0.6892151609068061</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P8">
-        <v>0.7567787040415452</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q8">
-        <v>72.75126861742788</v>
+        <v>32.89205343355617</v>
       </c>
       <c r="R8">
-        <v>654.761417556851</v>
+        <v>197.352320601337</v>
       </c>
       <c r="S8">
-        <v>0.1746071482696006</v>
+        <v>0.07462647541733899</v>
       </c>
       <c r="T8">
-        <v>0.2004524069364212</v>
+        <v>0.05710561617511777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J9">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03080033333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>0.092401</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.004414710343669059</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P9">
-        <v>0.004847482995302872</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q9">
-        <v>0.4660021953925556</v>
+        <v>0.7178474311726666</v>
       </c>
       <c r="R9">
-        <v>4.194019758533</v>
+        <v>6.460626880554</v>
       </c>
       <c r="S9">
-        <v>0.00111843155413204</v>
+        <v>0.001628673739814459</v>
       </c>
       <c r="T9">
-        <v>0.001283981207191171</v>
+        <v>0.0018694387670102</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.12977766666667</v>
+        <v>17.564497</v>
       </c>
       <c r="H10">
-        <v>45.389333</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I10">
-        <v>0.2533420014148681</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J10">
-        <v>0.2648758558689792</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.868607</v>
+        <v>0.104012</v>
       </c>
       <c r="N10">
-        <v>3.737214</v>
+        <v>0.312036</v>
       </c>
       <c r="O10">
-        <v>0.267833421212511</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P10">
-        <v>0.1960593642364025</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q10">
-        <v>28.271608456377</v>
+        <v>1.826918461964</v>
       </c>
       <c r="R10">
-        <v>169.629650738262</v>
+        <v>16.442266157676</v>
       </c>
       <c r="S10">
-        <v>0.0678534549757689</v>
+        <v>0.004144967293290056</v>
       </c>
       <c r="T10">
-        <v>0.05193139190324503</v>
+        <v>0.004757713197333503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.12977766666667</v>
+        <v>17.564497</v>
       </c>
       <c r="H11">
-        <v>45.389333</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I11">
-        <v>0.2533420014148681</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J11">
-        <v>0.2648758558689792</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.072589</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N11">
-        <v>0.217767</v>
+        <v>14.425447</v>
       </c>
       <c r="O11">
-        <v>0.01040441366878908</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P11">
-        <v>0.01142435503336674</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q11">
-        <v>1.098255431045667</v>
+        <v>84.45857351838633</v>
       </c>
       <c r="R11">
-        <v>9.884298879411</v>
+        <v>760.1271616654769</v>
       </c>
       <c r="S11">
-        <v>0.002635874982399236</v>
+        <v>0.1916221397726197</v>
       </c>
       <c r="T11">
-        <v>0.003026035817214097</v>
+        <v>0.2199494275318713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H12">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I12">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J12">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.196272</v>
+        <v>2.1739945</v>
       </c>
       <c r="N12">
-        <v>0.588816</v>
+        <v>4.347989</v>
       </c>
       <c r="O12">
-        <v>0.02813229386822481</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P12">
-        <v>0.03089009369338271</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q12">
-        <v>2.822854823616</v>
+        <v>38.1851198732665</v>
       </c>
       <c r="R12">
-        <v>25.405693412544</v>
+        <v>229.110719239599</v>
       </c>
       <c r="S12">
-        <v>0.006775010801840534</v>
+        <v>0.08663554299785091</v>
       </c>
       <c r="T12">
-        <v>0.007777844353498498</v>
+        <v>0.0662951859630328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H13">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I13">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J13">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.808482333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N13">
-        <v>14.425447</v>
+        <v>0.142338</v>
       </c>
       <c r="O13">
-        <v>0.6892151609068061</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P13">
-        <v>0.7567787040415452</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q13">
-        <v>69.15733038294978</v>
+        <v>0.8333651246619999</v>
       </c>
       <c r="R13">
-        <v>622.415973446548</v>
+        <v>7.500286121957998</v>
       </c>
       <c r="S13">
-        <v>0.1659814937881751</v>
+        <v>0.001890763740697612</v>
       </c>
       <c r="T13">
-        <v>0.1905499875948375</v>
+        <v>0.002170273241171071</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.38236133333333</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H14">
-        <v>43.147084</v>
+        <v>11.227161</v>
       </c>
       <c r="I14">
-        <v>0.2408268175206591</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J14">
-        <v>0.2517908955117437</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03080033333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N14">
-        <v>0.092401</v>
+        <v>0.312036</v>
       </c>
       <c r="O14">
-        <v>0.004414710343669059</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P14">
-        <v>0.004847482995302872</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q14">
-        <v>0.4429815231871111</v>
+        <v>0.5838797349659999</v>
       </c>
       <c r="R14">
-        <v>3.986833708684</v>
+        <v>3.503278409795999</v>
       </c>
       <c r="S14">
-        <v>0.001063180642341355</v>
+        <v>0.001324723820485769</v>
       </c>
       <c r="T14">
-        <v>0.00122055208436526</v>
+        <v>0.001013704179483724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.38236133333333</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H15">
-        <v>43.147084</v>
+        <v>11.227161</v>
       </c>
       <c r="I15">
-        <v>0.2408268175206591</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J15">
-        <v>0.2517908955117437</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.868607</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N15">
-        <v>3.737214</v>
+        <v>14.425447</v>
       </c>
       <c r="O15">
-        <v>0.267833421212511</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P15">
-        <v>0.1960593642364025</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q15">
-        <v>26.874981063996</v>
+        <v>26.9928026609945</v>
       </c>
       <c r="R15">
-        <v>161.249886383976</v>
+        <v>161.956815965967</v>
       </c>
       <c r="S15">
-        <v>0.06450147045627921</v>
+        <v>0.06124207867699554</v>
       </c>
       <c r="T15">
-        <v>0.04936596289454691</v>
+        <v>0.04686361802747425</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.38236133333333</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H16">
-        <v>43.147084</v>
+        <v>11.227161</v>
       </c>
       <c r="I16">
-        <v>0.2408268175206591</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J16">
-        <v>0.2517908955117437</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.072589</v>
+        <v>2.1739945</v>
       </c>
       <c r="N16">
-        <v>0.217767</v>
+        <v>4.347989</v>
       </c>
       <c r="O16">
-        <v>0.01040441366878908</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P16">
-        <v>0.01142435503336674</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q16">
-        <v>1.044001226825333</v>
+        <v>12.20389313230725</v>
       </c>
       <c r="R16">
-        <v>9.396011041428</v>
+        <v>48.81557252922899</v>
       </c>
       <c r="S16">
-        <v>0.00250566183202292</v>
+        <v>0.0276885580486391</v>
       </c>
       <c r="T16">
-        <v>0.002876548584495508</v>
+        <v>0.01412521190391256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H17">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I17">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J17">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.196272</v>
+        <v>0.047446</v>
       </c>
       <c r="N17">
-        <v>0.588816</v>
+        <v>0.142338</v>
       </c>
       <c r="O17">
-        <v>0.02813229386822481</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P17">
-        <v>0.03089009369338271</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q17">
-        <v>1.531218068856</v>
+        <v>0.266341940403</v>
       </c>
       <c r="R17">
-        <v>9.187308413136</v>
+        <v>1.598051642418</v>
       </c>
       <c r="S17">
-        <v>0.00367500973471387</v>
+        <v>0.0006042845670381092</v>
       </c>
       <c r="T17">
-        <v>0.002812655167667147</v>
+        <v>0.0004624101882454408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.07044533333334</v>
+      </c>
+      <c r="H18">
+        <v>54.211336</v>
+      </c>
+      <c r="I18">
+        <v>0.2924825341016128</v>
+      </c>
+      <c r="J18">
+        <v>0.3016174867021735</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>7.8015105</v>
-      </c>
-      <c r="H18">
-        <v>15.603021</v>
-      </c>
-      <c r="I18">
-        <v>0.1306331347144344</v>
-      </c>
-      <c r="J18">
-        <v>0.0910536301892045</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.808482333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N18">
-        <v>14.425447</v>
+        <v>0.312036</v>
       </c>
       <c r="O18">
-        <v>0.6892151609068061</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P18">
-        <v>0.7567787040415452</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q18">
-        <v>37.5134254125645</v>
+        <v>1.879543160010667</v>
       </c>
       <c r="R18">
-        <v>225.080552475387</v>
+        <v>16.915888440096</v>
       </c>
       <c r="S18">
-        <v>0.09003433696196941</v>
+        <v>0.00426436378348054</v>
       </c>
       <c r="T18">
-        <v>0.0689074482528643</v>
+        <v>0.004894759937850405</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.8015105</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H19">
-        <v>15.603021</v>
+        <v>54.211336</v>
       </c>
       <c r="I19">
-        <v>0.1306331347144344</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J19">
-        <v>0.0910536301892045</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03080033333333333</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N19">
-        <v>0.092401</v>
+        <v>14.425447</v>
       </c>
       <c r="O19">
-        <v>0.004414710343669059</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P19">
-        <v>0.004847482995302872</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q19">
-        <v>0.2402891239035</v>
+        <v>86.89141714079912</v>
       </c>
       <c r="R19">
-        <v>1.441734743421</v>
+        <v>782.022754267192</v>
       </c>
       <c r="S19">
-        <v>0.0005767074510497274</v>
+        <v>0.1971418482076363</v>
       </c>
       <c r="T19">
-        <v>0.000441380924002765</v>
+        <v>0.2262851083246303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8015105</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H20">
-        <v>15.603021</v>
+        <v>54.211336</v>
       </c>
       <c r="I20">
-        <v>0.1306331347144344</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J20">
-        <v>0.0910536301892045</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.868607</v>
+        <v>2.1739945</v>
       </c>
       <c r="N20">
-        <v>3.737214</v>
+        <v>4.347989</v>
       </c>
       <c r="O20">
-        <v>0.267833421212511</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P20">
-        <v>0.1960593642364025</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q20">
-        <v>14.5779571308735</v>
+        <v>39.28504876721734</v>
       </c>
       <c r="R20">
-        <v>58.311828523494</v>
+        <v>235.710292603304</v>
       </c>
       <c r="S20">
-        <v>0.03498791939428181</v>
+        <v>0.08913109459760302</v>
       </c>
       <c r="T20">
-        <v>0.01785191684631194</v>
+        <v>0.06820483010746917</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8015105</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H21">
-        <v>15.603021</v>
+        <v>54.211336</v>
       </c>
       <c r="I21">
-        <v>0.1306331347144344</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J21">
-        <v>0.0910536301892045</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.072589</v>
+        <v>0.047446</v>
       </c>
       <c r="N21">
-        <v>0.217767</v>
+        <v>0.142338</v>
       </c>
       <c r="O21">
-        <v>0.01040441366878908</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P21">
-        <v>0.01142435503336674</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q21">
-        <v>0.5663038456845</v>
+        <v>0.8573703492853334</v>
       </c>
       <c r="R21">
-        <v>3.397823074107</v>
+        <v>7.716333143568</v>
       </c>
       <c r="S21">
-        <v>0.001359161172419627</v>
+        <v>0.001945227512892913</v>
       </c>
       <c r="T21">
-        <v>0.001040228998358352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>14.54360033333333</v>
-      </c>
-      <c r="H22">
-        <v>43.630801</v>
-      </c>
-      <c r="I22">
-        <v>0.243526699294608</v>
-      </c>
-      <c r="J22">
-        <v>0.2546136943039924</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.196272</v>
-      </c>
-      <c r="N22">
-        <v>0.588816</v>
-      </c>
-      <c r="O22">
-        <v>0.02813229386822481</v>
-      </c>
-      <c r="P22">
-        <v>0.03089009369338271</v>
-      </c>
-      <c r="Q22">
-        <v>2.854501524624</v>
-      </c>
-      <c r="R22">
-        <v>25.690513721616</v>
-      </c>
-      <c r="S22">
-        <v>0.006850964669314727</v>
-      </c>
-      <c r="T22">
-        <v>0.007865040872668629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>14.54360033333333</v>
-      </c>
-      <c r="H23">
-        <v>43.630801</v>
-      </c>
-      <c r="I23">
-        <v>0.243526699294608</v>
-      </c>
-      <c r="J23">
-        <v>0.2546136943039924</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.808482333333333</v>
-      </c>
-      <c r="N23">
-        <v>14.425447</v>
-      </c>
-      <c r="O23">
-        <v>0.6892151609068061</v>
-      </c>
-      <c r="P23">
-        <v>0.7567787040415452</v>
-      </c>
-      <c r="Q23">
-        <v>69.9326452658941</v>
-      </c>
-      <c r="R23">
-        <v>629.3938073930469</v>
-      </c>
-      <c r="S23">
-        <v>0.1678422932394366</v>
-      </c>
-      <c r="T23">
-        <v>0.1926862216066055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>14.54360033333333</v>
-      </c>
-      <c r="H24">
-        <v>43.630801</v>
-      </c>
-      <c r="I24">
-        <v>0.243526699294608</v>
-      </c>
-      <c r="J24">
-        <v>0.2546136943039924</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03080033333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.092401</v>
-      </c>
-      <c r="O24">
-        <v>0.004414710343669059</v>
-      </c>
-      <c r="P24">
-        <v>0.004847482995302872</v>
-      </c>
-      <c r="Q24">
-        <v>0.4479477381334444</v>
-      </c>
-      <c r="R24">
-        <v>4.031529643201</v>
-      </c>
-      <c r="S24">
-        <v>0.00107509983833549</v>
-      </c>
-      <c r="T24">
-        <v>0.001234235553509847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>14.54360033333333</v>
-      </c>
-      <c r="H25">
-        <v>43.630801</v>
-      </c>
-      <c r="I25">
-        <v>0.243526699294608</v>
-      </c>
-      <c r="J25">
-        <v>0.2546136943039924</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.868607</v>
-      </c>
-      <c r="N25">
-        <v>3.737214</v>
-      </c>
-      <c r="O25">
-        <v>0.267833421212511</v>
-      </c>
-      <c r="P25">
-        <v>0.1960593642364025</v>
-      </c>
-      <c r="Q25">
-        <v>27.176273388069</v>
-      </c>
-      <c r="R25">
-        <v>163.057640328414</v>
-      </c>
-      <c r="S25">
-        <v>0.06522458902866524</v>
-      </c>
-      <c r="T25">
-        <v>0.04991939903112248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>14.54360033333333</v>
-      </c>
-      <c r="H26">
-        <v>43.630801</v>
-      </c>
-      <c r="I26">
-        <v>0.243526699294608</v>
-      </c>
-      <c r="J26">
-        <v>0.2546136943039924</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.072589</v>
-      </c>
-      <c r="N26">
-        <v>0.217767</v>
-      </c>
-      <c r="O26">
-        <v>0.01040441366878908</v>
-      </c>
-      <c r="P26">
-        <v>0.01142435503336674</v>
-      </c>
-      <c r="Q26">
-        <v>1.055705404596333</v>
-      </c>
-      <c r="R26">
-        <v>9.501348641367001</v>
-      </c>
-      <c r="S26">
-        <v>0.002533752518855908</v>
-      </c>
-      <c r="T26">
-        <v>0.002908797240085917</v>
+        <v>0.002232788332223689</v>
       </c>
     </row>
   </sheetData>
